--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/735d5fd0846662ea/Documents/08_Projets/01_PanneauPV/DataAnalysis/SmartMeterData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3105774C3BA2911592AD0375C65F8EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93FD8C36-B760-42B1-82F1-F1EA535BF1C6}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_600931BFD36058724F593111595ED87656CD17C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75470185-C55B-48D0-A65B-A991D2BCDEC3}"/>
   <bookViews>
     <workbookView xWindow="19103" yWindow="-98" windowWidth="21794" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Grid In</t>
   </si>
@@ -67,10 +67,58 @@
     <t>Conso Total SDA</t>
   </si>
   <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t/>
+  </si>
+  <si>
+    <t>PV Théorique MPA</t>
+  </si>
+  <si>
+    <t>PV Théorique SDA</t>
+  </si>
+  <si>
+    <t>Grid Théorique MPA</t>
+  </si>
+  <si>
+    <t>Grid Théorique SDA</t>
+  </si>
+  <si>
+    <t>Surplus MPA</t>
+  </si>
+  <si>
+    <t>Surplus SDA</t>
+  </si>
+  <si>
+    <t>PV Final MPA</t>
+  </si>
+  <si>
+    <t>Grid Final MPA</t>
+  </si>
+  <si>
+    <t>PV Final SDA</t>
+  </si>
+  <si>
+    <t>Grid Final SDA</t>
+  </si>
+  <si>
+    <t>Total PV</t>
+  </si>
+  <si>
+    <t>Total Grid</t>
+  </si>
+  <si>
+    <t>Oiken achète</t>
+  </si>
+  <si>
+    <t>SDA doit à Oiken</t>
+  </si>
+  <si>
+    <t>MPA doit à Oiken</t>
+  </si>
+  <si>
+    <t>MPA doit à SDA</t>
+  </si>
+  <si>
+    <t>SDA doit a MPA</t>
   </si>
 </sst>
 </file>
@@ -433,33 +481,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,8 +568,44 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -556,8 +651,38 @@
       <c r="P2">
         <v>0</v>
       </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>70</v>
       </c>
@@ -603,8 +728,38 @@
       <c r="P3">
         <v>35</v>
       </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>35</v>
+      </c>
+      <c r="U3">
+        <v>35</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>35</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>140</v>
       </c>
@@ -650,8 +805,38 @@
       <c r="P4">
         <v>25</v>
       </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>45</v>
+      </c>
+      <c r="U4">
+        <v>25</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>45</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>210</v>
       </c>
@@ -697,37 +882,898 @@
       <c r="P5">
         <v>45</v>
       </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>25</v>
+      </c>
+      <c r="U5">
+        <v>45</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>25</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>45</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>210</v>
+      </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <v>70</v>
+      </c>
+      <c r="G6">
+        <v>70</v>
+      </c>
+      <c r="H6">
+        <v>120</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>120</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <v>40</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>35</v>
+      </c>
+      <c r="P6">
+        <v>35</v>
+      </c>
+      <c r="R6">
+        <v>35</v>
+      </c>
+      <c r="S6">
+        <v>35</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>35</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>35</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>210</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>90</v>
-      </c>
-      <c r="K6">
-        <v>90</v>
-      </c>
-      <c r="M6">
-        <v>30</v>
-      </c>
-      <c r="O6">
-        <v>105</v>
-      </c>
-      <c r="P6">
-        <v>105</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>16</v>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>140</v>
+      </c>
+      <c r="F7">
+        <v>70</v>
+      </c>
+      <c r="G7">
+        <v>70</v>
+      </c>
+      <c r="H7">
+        <v>160</v>
+      </c>
+      <c r="I7">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>140</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>50</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>45</v>
+      </c>
+      <c r="P7">
+        <v>25</v>
+      </c>
+      <c r="R7">
+        <v>35</v>
+      </c>
+      <c r="S7">
+        <v>35</v>
+      </c>
+      <c r="T7">
+        <v>10</v>
+      </c>
+      <c r="U7">
+        <v>-10</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <v>45</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>25</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>210</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>210</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>70</v>
+      </c>
+      <c r="H8">
+        <v>180</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>180</v>
+      </c>
+      <c r="K8">
+        <v>40</v>
+      </c>
+      <c r="L8">
+        <v>60</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>25</v>
+      </c>
+      <c r="P8">
+        <v>45</v>
+      </c>
+      <c r="R8">
+        <v>35</v>
+      </c>
+      <c r="S8">
+        <v>35</v>
+      </c>
+      <c r="T8">
+        <v>-10</v>
+      </c>
+      <c r="U8">
+        <v>10</v>
+      </c>
+      <c r="V8">
+        <v>10</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>25</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>45</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>230</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>290</v>
+      </c>
+      <c r="F9">
+        <v>80</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <v>220</v>
+      </c>
+      <c r="I9">
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <v>220</v>
+      </c>
+      <c r="K9">
+        <v>40</v>
+      </c>
+      <c r="L9">
+        <v>80</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <v>50</v>
+      </c>
+      <c r="P9">
+        <v>50</v>
+      </c>
+      <c r="R9">
+        <v>40</v>
+      </c>
+      <c r="S9">
+        <v>40</v>
+      </c>
+      <c r="T9">
+        <v>10</v>
+      </c>
+      <c r="U9">
+        <v>10</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>40</v>
+      </c>
+      <c r="Z9">
+        <v>10</v>
+      </c>
+      <c r="AB9">
+        <v>40</v>
+      </c>
+      <c r="AC9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>250</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>370</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>80</v>
+      </c>
+      <c r="H10">
+        <v>240</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>280</v>
+      </c>
+      <c r="K10">
+        <v>60</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>30</v>
+      </c>
+      <c r="P10">
+        <v>70</v>
+      </c>
+      <c r="R10">
+        <v>40</v>
+      </c>
+      <c r="S10">
+        <v>40</v>
+      </c>
+      <c r="T10">
+        <v>-10</v>
+      </c>
+      <c r="U10">
+        <v>30</v>
+      </c>
+      <c r="V10">
+        <v>10</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>30</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>50</v>
+      </c>
+      <c r="AC10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>270</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>450</v>
+      </c>
+      <c r="F11">
+        <v>80</v>
+      </c>
+      <c r="G11">
+        <v>80</v>
+      </c>
+      <c r="H11">
+        <v>300</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+      <c r="J11">
+        <v>300</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>120</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <v>70</v>
+      </c>
+      <c r="P11">
+        <v>30</v>
+      </c>
+      <c r="R11">
+        <v>40</v>
+      </c>
+      <c r="S11">
+        <v>40</v>
+      </c>
+      <c r="T11">
+        <v>30</v>
+      </c>
+      <c r="U11">
+        <v>-10</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <v>50</v>
+      </c>
+      <c r="Z11">
+        <v>20</v>
+      </c>
+      <c r="AB11">
+        <v>30</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>300</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>500</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>370</v>
+      </c>
+      <c r="I12">
+        <v>70</v>
+      </c>
+      <c r="J12">
+        <v>300</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>130</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>75</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>25</v>
+      </c>
+      <c r="S12">
+        <v>25</v>
+      </c>
+      <c r="T12">
+        <v>50</v>
+      </c>
+      <c r="U12">
+        <v>-20</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>20</v>
+      </c>
+      <c r="Y12">
+        <v>45</v>
+      </c>
+      <c r="Z12">
+        <v>30</v>
+      </c>
+      <c r="AB12">
+        <v>5</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>300</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>620</v>
+      </c>
+      <c r="F13">
+        <v>120</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>410</v>
+      </c>
+      <c r="I13">
+        <v>40</v>
+      </c>
+      <c r="J13">
+        <v>340</v>
+      </c>
+      <c r="K13">
+        <v>40</v>
+      </c>
+      <c r="L13">
+        <v>150</v>
+      </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
+      <c r="O13">
+        <v>50</v>
+      </c>
+      <c r="P13">
+        <v>50</v>
+      </c>
+      <c r="R13">
+        <v>50</v>
+      </c>
+      <c r="S13">
+        <v>50</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>50</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>50</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>300</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>740</v>
+      </c>
+      <c r="F14">
+        <v>120</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>470</v>
+      </c>
+      <c r="I14">
+        <v>60</v>
+      </c>
+      <c r="J14">
+        <v>360</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>170</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="O14">
+        <v>70</v>
+      </c>
+      <c r="P14">
+        <v>30</v>
+      </c>
+      <c r="R14">
+        <v>50</v>
+      </c>
+      <c r="S14">
+        <v>50</v>
+      </c>
+      <c r="T14">
+        <v>20</v>
+      </c>
+      <c r="U14">
+        <v>-20</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>20</v>
+      </c>
+      <c r="Y14">
+        <v>70</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>30</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>300</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>860</v>
+      </c>
+      <c r="F15">
+        <v>120</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>490</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>420</v>
+      </c>
+      <c r="K15">
+        <v>60</v>
+      </c>
+      <c r="L15">
+        <v>190</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="O15">
+        <v>30</v>
+      </c>
+      <c r="P15">
+        <v>70</v>
+      </c>
+      <c r="R15">
+        <v>50</v>
+      </c>
+      <c r="S15">
+        <v>50</v>
+      </c>
+      <c r="T15">
+        <v>-20</v>
+      </c>
+      <c r="U15">
+        <v>20</v>
+      </c>
+      <c r="V15">
+        <v>20</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>30</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>70</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>300</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>860</v>
+      </c>
+      <c r="G16">
+        <v>800</v>
+      </c>
+      <c r="I16">
+        <v>490</v>
+      </c>
+      <c r="K16">
+        <v>420</v>
+      </c>
+      <c r="M16">
+        <v>190</v>
+      </c>
+      <c r="O16">
+        <v>585</v>
+      </c>
+      <c r="P16">
+        <v>515</v>
+      </c>
+      <c r="R16">
+        <v>400</v>
+      </c>
+      <c r="S16">
+        <v>400</v>
+      </c>
+      <c r="Y16">
+        <v>420</v>
+      </c>
+      <c r="Z16">
+        <v>165</v>
+      </c>
+      <c r="AB16">
+        <v>380</v>
+      </c>
+      <c r="AC16">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y19">
+        <v>800</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>135</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
